--- a/JustChecking.xlsx
+++ b/JustChecking.xlsx
@@ -4,15 +4,77 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ObjectRepo" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>LogicalName</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>L7</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>heellloo1223</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,12 +404,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -358,7 +502,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -370,7 +514,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
